--- a/COBie-extractor/extractor/input/samplesheet.xlsx
+++ b/COBie-extractor/extractor/input/samplesheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rahul.Jaiswal\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\itwinConnectorSamplegitHub\COBie-extractor\extractor\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCC15E85-0C1F-4F0D-B391-6BD3E83CC3A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B07C444-CB14-4888-B7B2-CB2D96E6E0ED}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="804" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2507,13 +2507,13 @@
     <t>LocationZ</t>
   </si>
   <si>
-    <t>Idofelementbeingobserved</t>
-  </si>
-  <si>
-    <t>TypeofQuantityObserved</t>
-  </si>
-  <si>
-    <t>Unitsforquantityorquantitiesbeingobserved</t>
+    <t>Id_of_element_being_observed</t>
+  </si>
+  <si>
+    <t>Type_of_Quantity_Observed</t>
+  </si>
+  <si>
+    <t>Units_for_quantity_orquantities_being_observed</t>
   </si>
 </sst>
 </file>
@@ -14687,10 +14687,10 @@
   <dimension ref="A1:I95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" customHeight="1" x14ac:dyDescent="0.3"/>
